--- a/contents/battle/battle_10/battle_10.xlsx
+++ b/contents/battle/battle_10/battle_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle\battle_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CDDE01-B349-4D8D-B64A-FE0745426D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05A616-4E8E-4903-8966-DDC807976C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="56">
   <si>
     <t>x</t>
   </si>
@@ -4071,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -4125,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5483,7 +5483,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J38" s="8">
         <v>1</v>
@@ -5518,13 +5518,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J39" s="8">
         <v>1</v>
       </c>
       <c r="K39" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5553,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="I40" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40" s="8">
         <v>1</v>
@@ -5588,7 +5588,7 @@
         <v>12</v>
       </c>
       <c r="I41" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -5623,7 +5623,7 @@
         <v>12</v>
       </c>
       <c r="I42" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J42" s="8">
         <v>1</v>
@@ -5658,7 +5658,7 @@
         <v>12</v>
       </c>
       <c r="I43" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J43" s="8">
         <v>1</v>
@@ -5693,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="I44" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J44" s="8">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         <v>12</v>
       </c>
       <c r="I45" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J45" s="8">
         <v>1</v>
@@ -5763,7 +5763,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J46" s="8">
         <v>1</v>
@@ -5798,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="I47" s="10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J47" s="8">
         <v>1</v>
@@ -5833,7 +5833,7 @@
         <v>12</v>
       </c>
       <c r="I48" s="10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J48" s="8">
         <v>1</v>
@@ -5868,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="I49" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J49" s="8">
         <v>1</v>
@@ -5903,121 +5903,31 @@
         <v>12</v>
       </c>
       <c r="I50" s="10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J50" s="8">
         <v>1</v>
       </c>
       <c r="K50" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>54</v>
-      </c>
-      <c r="B51" s="17">
-        <v>1</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="8">
-        <v>4</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
-        <v>2</v>
-      </c>
-      <c r="H51" s="8">
-        <v>12</v>
-      </c>
-      <c r="I51" s="10">
-        <v>62</v>
-      </c>
-      <c r="J51" s="8">
-        <v>1</v>
-      </c>
-      <c r="K51" s="8">
-        <v>3</v>
-      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>55</v>
-      </c>
-      <c r="B52" s="17">
-        <v>1</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="8">
-        <v>4</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8">
-        <v>2</v>
-      </c>
-      <c r="H52" s="8">
-        <v>12</v>
-      </c>
-      <c r="I52" s="10">
-        <v>63</v>
-      </c>
-      <c r="J52" s="8">
-        <v>1</v>
-      </c>
-      <c r="K52" s="8">
-        <v>2</v>
-      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>56</v>
-      </c>
-      <c r="B53" s="17">
-        <v>1</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="8">
-        <v>4</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
-        <v>2</v>
-      </c>
-      <c r="H53" s="8">
-        <v>12</v>
-      </c>
-      <c r="I53" s="10">
-        <v>64</v>
-      </c>
-      <c r="J53" s="8">
-        <v>1</v>
-      </c>
-      <c r="K53" s="8">
-        <v>1</v>
-      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -6223,24 +6133,6 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
